--- a/checklists/Функциональное тестирование.xlsx
+++ b/checklists/Функциональное тестирование.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\003QA\Чеклисты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frAk1R\git\QA\checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA414A7E-A2CF-4928-A53E-2D7B8175DB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2A1A87-FFED-46E3-8033-CE6CF2A73A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27735" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,24 +293,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -322,17 +310,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -694,13 +682,13 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -708,67 +696,83 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="10" t="s">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -776,58 +780,70 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="11" t="s">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="11" t="s">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -836,94 +852,112 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12"/>
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12"/>
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12"/>
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12"/>
       <c r="C22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12"/>
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12"/>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12"/>
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12"/>
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
-        <v>4</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -932,34 +966,40 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12"/>
       <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12"/>
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12"/>
       <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>5</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -968,50 +1008,60 @@
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12"/>
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12"/>
       <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12"/>
       <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12"/>
       <c r="C36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12"/>
       <c r="C37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14">
-        <v>6</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1020,26 +1070,30 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12"/>
       <c r="C39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12"/>
       <c r="C40" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>7</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1048,26 +1102,30 @@
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12"/>
       <c r="C42" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12"/>
       <c r="C43" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>8</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1076,24 +1134,28 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12"/>
       <c r="C45" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12"/>
       <c r="C46" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="17">
-        <v>9</v>
+      <c r="A47" s="11">
+        <v>46</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
@@ -1102,8 +1164,8 @@
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="17">
-        <v>10</v>
+      <c r="A48" s="11">
+        <v>47</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
@@ -1112,18 +1174,18 @@
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="17">
-        <v>11</v>
+      <c r="A49" s="11">
+        <v>48</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="17">
-        <v>12</v>
+      <c r="A50" s="11">
+        <v>49</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
@@ -1132,18 +1194,18 @@
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="17">
-        <v>13</v>
+      <c r="A51" s="11">
+        <v>50</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="17">
-        <v>14</v>
+      <c r="A52" s="11">
+        <v>51</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
@@ -1152,18 +1214,18 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="17">
-        <v>15</v>
+      <c r="A53" s="11">
+        <v>52</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="17">
-        <v>16</v>
+      <c r="A54" s="11">
+        <v>53</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
@@ -1172,8 +1234,8 @@
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
-        <v>17</v>
+      <c r="A55" s="11">
+        <v>54</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
@@ -1185,15 +1247,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C47:C55">
     <sortCondition ref="C47:C55"/>
   </sortState>
-  <mergeCells count="18">
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A37"/>
+  <mergeCells count="10">
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="B41:B43"/>
